--- a/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 днрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 днрсч зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\06,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89DCF4-FAF5-4B1A-986E-2B7993D87091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A87AD0-5453-4D38-A635-44C4AFA7726B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,10 +321,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -4378,7 +4382,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
